--- a/Boletín 1/Data/WID_riqueza_ALC_tableau.xlsx
+++ b/Boletín 1/Data/WID_riqueza_ALC_tableau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,62 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>pais</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Perú</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ALC</t>
+          <t>valor</t>
         </is>
       </c>
     </row>
@@ -504,205 +454,780 @@
       <c r="A2" t="n">
         <v>2001</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.3473</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ALC</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2785</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3663</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3834</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.3896</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3475</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.387</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4081</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.3114</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.2967</v>
-      </c>
-      <c r="M2" t="n">
         <v>0.3432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.3306</v>
+        <v>2001</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2457</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3762</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3869</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3845</v>
-      </c>
-      <c r="G3" t="n">
         <v>0.2785</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3304</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.3681</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.3912</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3731</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2972</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.3593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.302</v>
+        <v>2001</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2397</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3763</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4027</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3809</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2445</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3501</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4012</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3961</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.2967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3552</v>
+        <v>0.3473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.2928</v>
+        <v>2001</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2411</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3747</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3937</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3498</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2928</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4024</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3055</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.3533</v>
+        <v>0.3663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3834</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3896</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2967</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3046</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3475</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4081</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ALC</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2457</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3306</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3762</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3869</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3845</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2972</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2785</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3731</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3304</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3681</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3912</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ALC</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3552</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2397</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3763</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4027</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3809</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2967</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2445</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3961</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3501</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4012</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ALC</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3533</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.2411</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2928</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3747</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3937</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3498</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3055</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.238</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.4024</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.2928</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>2023</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ALC</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3466</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.2418</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
         <v>0.2835</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.2418</v>
-      </c>
-      <c r="D6" t="n">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
         <v>0.3702</v>
       </c>
-      <c r="E6" t="n">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
         <v>0.3656</v>
       </c>
-      <c r="F6" t="n">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
         <v>0.3793</v>
       </c>
-      <c r="G6" t="n">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2771</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
         <v>0.2459</v>
       </c>
-      <c r="H6" t="n">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.3797</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
         <v>0.2833</v>
       </c>
-      <c r="I6" t="n">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>0.3601</v>
       </c>
-      <c r="J6" t="n">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>0.4014</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.3797</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2771</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.3466</v>
       </c>
     </row>
   </sheetData>
